--- a/database/industries/folad/folad/cashflow/quarterly.xlsx
+++ b/database/industries/folad/folad/cashflow/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D7CCA-4FF8-4598-B8C1-CBEA2897845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799043F7-33A7-4657-A67C-218CC17633E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فولاد-فولاد مبارکه اصفهان</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,22 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-11-24 (5)</t>
-  </si>
-  <si>
-    <t>1400-10-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-05-09 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,14 +697,12 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,13 +710,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,13 +721,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,13 +732,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -791,13 +741,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,13 +752,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -823,13 +763,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -837,13 +772,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -863,59 +793,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -923,15 +823,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -939,123 +834,73 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>36737255</v>
+        <v>69413459</v>
       </c>
       <c r="E12" s="15">
-        <v>80526039</v>
+        <v>72142734</v>
       </c>
       <c r="F12" s="15">
-        <v>34106842</v>
+        <v>103739162</v>
       </c>
       <c r="G12" s="15">
-        <v>22388669</v>
+        <v>38069602</v>
       </c>
       <c r="H12" s="15">
-        <v>52826349</v>
-      </c>
-      <c r="I12" s="15">
-        <v>210099113</v>
-      </c>
-      <c r="J12" s="15">
-        <v>67873588</v>
-      </c>
-      <c r="K12" s="15">
-        <v>72142734</v>
-      </c>
-      <c r="L12" s="15">
-        <v>103739162</v>
-      </c>
-      <c r="M12" s="15">
-        <v>61598271</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>84333910</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-3174754</v>
+        <v>-6337096</v>
       </c>
       <c r="E13" s="11">
-        <v>-4648627</v>
+        <v>-11823798</v>
       </c>
       <c r="F13" s="11">
-        <v>-20007683</v>
+        <v>-6558204</v>
       </c>
       <c r="G13" s="11">
-        <v>3258477</v>
+        <v>-16976725</v>
       </c>
       <c r="H13" s="11">
-        <v>-677838</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-16739645</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-6337095</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-11823798</v>
-      </c>
-      <c r="L13" s="11">
-        <v>-6558204</v>
-      </c>
-      <c r="M13" s="11">
-        <v>-49254454</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-33961606</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>30387747</v>
+        <v>63076363</v>
       </c>
       <c r="E14" s="17">
-        <v>79052166</v>
+        <v>60318936</v>
       </c>
       <c r="F14" s="17">
-        <v>14099159</v>
+        <v>97180958</v>
       </c>
       <c r="G14" s="17">
-        <v>25647146</v>
+        <v>21092877</v>
       </c>
       <c r="H14" s="17">
-        <v>52148511</v>
-      </c>
-      <c r="I14" s="17">
-        <v>193359468</v>
-      </c>
-      <c r="J14" s="17">
-        <v>61536493</v>
-      </c>
-      <c r="K14" s="17">
-        <v>60318936</v>
-      </c>
-      <c r="L14" s="17">
-        <v>97180958</v>
-      </c>
-      <c r="M14" s="17">
-        <v>12343817</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>50372304</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1063,87 +908,52 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>32</v>
+        <v>520535</v>
       </c>
       <c r="E16" s="15">
-        <v>51</v>
+        <v>-520535</v>
       </c>
       <c r="F16" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>-89</v>
+        <v>576</v>
       </c>
       <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>520535</v>
-      </c>
-      <c r="K16" s="15">
-        <v>-520535</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-11424223</v>
+        <v>-4540728</v>
       </c>
       <c r="E17" s="11">
-        <v>6889752</v>
+        <v>-45754657</v>
       </c>
       <c r="F17" s="11">
-        <v>-2509694</v>
+        <v>-22955134</v>
       </c>
       <c r="G17" s="11">
-        <v>-7387567</v>
+        <v>-42722903</v>
       </c>
       <c r="H17" s="11">
-        <v>-967923</v>
-      </c>
-      <c r="I17" s="11">
-        <v>-5513917</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-4540728</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-45754657</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-22955134</v>
-      </c>
-      <c r="M17" s="11">
-        <v>-41987468</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-23193343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1161,133 +971,73 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <v>4817365</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>-4614960</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>4278448</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-186127</v>
       </c>
       <c r="E20" s="15">
-        <v>0</v>
+        <v>-7387</v>
       </c>
       <c r="F20" s="15">
-        <v>-4871635</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>4495125</v>
+        <v>-4677</v>
       </c>
       <c r="H20" s="15">
         <v>0</v>
       </c>
-      <c r="I20" s="15">
-        <v>-165982</v>
-      </c>
-      <c r="J20" s="15">
-        <v>-186127</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-7387</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>-711948</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>-130000</v>
+        <v>-200000</v>
       </c>
       <c r="E21" s="11">
-        <v>-685350</v>
+        <v>-1309000</v>
       </c>
       <c r="F21" s="11">
-        <v>-1837495</v>
+        <v>-1000000</v>
       </c>
       <c r="G21" s="11">
-        <v>1480122</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>-306000</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-200000</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-1309000</v>
-      </c>
-      <c r="L21" s="11">
-        <v>-1000000</v>
-      </c>
-      <c r="M21" s="11">
-        <v>-3958905</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-4958904</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1300,102 +1050,57 @@
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>0</v>
+        <v>-368031</v>
       </c>
       <c r="E23" s="11">
-        <v>1067848</v>
+        <v>377900</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>33481</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
-        <v>368031</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-368031</v>
-      </c>
-      <c r="K23" s="11">
-        <v>377900</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>3078145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-3174204</v>
+        <v>-16590347</v>
       </c>
       <c r="E24" s="15">
-        <v>-5991503</v>
+        <v>-60168449</v>
       </c>
       <c r="F24" s="15">
-        <v>-11605139</v>
+        <v>-38457043</v>
       </c>
       <c r="G24" s="15">
-        <v>-4126163</v>
+        <v>-42401476</v>
       </c>
       <c r="H24" s="15">
-        <v>-2986462</v>
-      </c>
-      <c r="I24" s="15">
-        <v>-4661735</v>
-      </c>
-      <c r="J24" s="15">
-        <v>-16590347</v>
-      </c>
-      <c r="K24" s="15">
-        <v>-60168449</v>
-      </c>
-      <c r="L24" s="15">
-        <v>-38457043</v>
-      </c>
-      <c r="M24" s="15">
-        <v>-64082169</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-40085749</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1408,66 +1113,36 @@
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>244375242</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>72885824</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60396678</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-34394457</v>
+        <v>-56500000</v>
       </c>
       <c r="E26" s="15">
-        <v>-106111313</v>
+        <v>37226096</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="15">
-        <v>60859336</v>
+        <v>-167480579</v>
       </c>
       <c r="H26" s="15">
-        <v>-15749522</v>
-      </c>
-      <c r="I26" s="15">
-        <v>-80997620</v>
-      </c>
-      <c r="J26" s="15">
-        <v>-56500000</v>
-      </c>
-      <c r="K26" s="15">
-        <v>37226096</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-95536032</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1485,25 +1160,10 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1521,205 +1181,115 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="E29" s="11">
-        <v>367057</v>
+        <v>0</v>
       </c>
       <c r="F29" s="11">
         <v>0</v>
       </c>
       <c r="G29" s="11">
-        <v>-105594</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
         <v>458655</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>799</v>
+        <v>-2914</v>
       </c>
       <c r="E30" s="15">
-        <v>27347</v>
+        <v>26120145</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>-28146</v>
+        <v>24130831</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
       </c>
-      <c r="I30" s="15">
-        <v>2914</v>
-      </c>
-      <c r="J30" s="15">
-        <v>-388</v>
-      </c>
-      <c r="K30" s="15">
-        <v>26120145</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>1882428</v>
+        <v>10049556</v>
       </c>
       <c r="E31" s="11">
-        <v>6042363</v>
+        <v>10732035</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>9607245</v>
       </c>
       <c r="G31" s="11">
-        <v>11074580</v>
+        <v>4622595</v>
       </c>
       <c r="H31" s="11">
-        <v>93360</v>
-      </c>
-      <c r="I31" s="11">
-        <v>11149324</v>
-      </c>
-      <c r="J31" s="11">
-        <v>10049556</v>
-      </c>
-      <c r="K31" s="11">
-        <v>10732035</v>
-      </c>
-      <c r="L31" s="11">
-        <v>9607245</v>
-      </c>
-      <c r="M31" s="11">
-        <v>11979954</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12175165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-47239625</v>
+        <v>-67815530</v>
       </c>
       <c r="E32" s="17">
-        <v>-93576383</v>
+        <v>-33303852</v>
       </c>
       <c r="F32" s="17">
-        <v>-25438917</v>
+        <v>-52804932</v>
       </c>
       <c r="G32" s="17">
-        <v>70573533</v>
+        <v>22519609</v>
       </c>
       <c r="H32" s="17">
-        <v>-19610547</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-80124985</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-67815530</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-33303852</v>
-      </c>
-      <c r="L32" s="17">
-        <v>-52804932</v>
-      </c>
-      <c r="M32" s="17">
-        <v>-22335275</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-90743530</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>-16851878</v>
+        <v>-4739167</v>
       </c>
       <c r="E33" s="19">
-        <v>-14524217</v>
+        <v>27015084</v>
       </c>
       <c r="F33" s="19">
-        <v>-11339758</v>
+        <v>44376026</v>
       </c>
       <c r="G33" s="19">
-        <v>96220679</v>
+        <v>43612486</v>
       </c>
       <c r="H33" s="19">
-        <v>32537964</v>
-      </c>
-      <c r="I33" s="19">
-        <v>113234483</v>
-      </c>
-      <c r="J33" s="19">
-        <v>-6279037</v>
-      </c>
-      <c r="K33" s="19">
-        <v>27015084</v>
-      </c>
-      <c r="L33" s="19">
-        <v>44376026</v>
-      </c>
-      <c r="M33" s="19">
-        <v>-9991458</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-40371226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1727,15 +1297,10 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1753,61 +1318,31 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1825,277 +1360,157 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>-15303167</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>-144372</v>
-      </c>
-      <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>-1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>126405666</v>
+        <v>79331458</v>
       </c>
       <c r="E39" s="15">
-        <v>417868539</v>
+        <v>265333316</v>
       </c>
       <c r="F39" s="15">
-        <v>107594386</v>
+        <v>94810740</v>
       </c>
       <c r="G39" s="15">
-        <v>318971459</v>
+        <v>312508750</v>
       </c>
       <c r="H39" s="15">
-        <v>36904000</v>
-      </c>
-      <c r="I39" s="15">
-        <v>326824568</v>
-      </c>
-      <c r="J39" s="15">
-        <v>79331458</v>
-      </c>
-      <c r="K39" s="15">
-        <v>265333316</v>
-      </c>
-      <c r="L39" s="15">
-        <v>94810740</v>
-      </c>
-      <c r="M39" s="15">
-        <v>299539260</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>79912320</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-111703548</v>
+        <v>-49177088</v>
       </c>
       <c r="E40" s="11">
-        <v>-400311479</v>
+        <v>-287275882</v>
       </c>
       <c r="F40" s="11">
-        <v>-93709274</v>
+        <v>-73286387</v>
       </c>
       <c r="G40" s="11">
-        <v>-328314863</v>
+        <v>-274266761</v>
       </c>
       <c r="H40" s="11">
-        <v>-26391903</v>
-      </c>
-      <c r="I40" s="11">
-        <v>-382210114</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-49177088</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-287275882</v>
-      </c>
-      <c r="L40" s="11">
-        <v>-73286387</v>
-      </c>
-      <c r="M40" s="11">
-        <v>-248782868</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2902771</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-3448608</v>
+        <v>-13786380</v>
       </c>
       <c r="E41" s="15">
-        <v>-7514044</v>
+        <v>485570</v>
       </c>
       <c r="F41" s="15">
-        <v>-7358587</v>
+        <v>-6771422</v>
       </c>
       <c r="G41" s="15">
-        <v>-9253211</v>
+        <v>-4749379</v>
       </c>
       <c r="H41" s="15">
-        <v>-2048686</v>
-      </c>
-      <c r="I41" s="15">
-        <v>-7266073</v>
-      </c>
-      <c r="J41" s="15">
-        <v>-13016446</v>
-      </c>
-      <c r="K41" s="15">
-        <v>485570</v>
-      </c>
-      <c r="L41" s="15">
-        <v>-6771422</v>
-      </c>
-      <c r="M41" s="15">
-        <v>-4158578</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-10580020</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="E42" s="11">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="11">
-        <v>264281</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
-        <v>-214335</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
       </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
-        <v>0</v>
+        <v>49946</v>
       </c>
       <c r="E43" s="15">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="F43" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G43" s="15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H43" s="15">
-        <v>-10000000</v>
-      </c>
-      <c r="I43" s="15">
-        <v>-20049946</v>
-      </c>
-      <c r="J43" s="15">
-        <v>49946</v>
-      </c>
-      <c r="K43" s="15">
-        <v>30000000</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
-        <v>0</v>
+        <v>-201</v>
       </c>
       <c r="E44" s="11">
-        <v>-342616</v>
+        <v>5699998</v>
       </c>
       <c r="F44" s="11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
-        <v>-17584</v>
+        <v>0</v>
       </c>
       <c r="H44" s="11">
-        <v>-1900000</v>
-      </c>
-      <c r="I44" s="11">
-        <v>-3799799</v>
-      </c>
-      <c r="J44" s="11">
-        <v>-199</v>
-      </c>
-      <c r="K44" s="11">
-        <v>5699998</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2113,25 +1528,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2149,25 +1549,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2185,25 +1570,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2221,25 +1591,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2257,275 +1612,155 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-3207237</v>
+        <v>-3102667</v>
       </c>
       <c r="E50" s="11">
-        <v>-1939151</v>
+        <v>-52649844</v>
       </c>
       <c r="F50" s="11">
-        <v>-5211375</v>
+        <v>-18083810</v>
       </c>
       <c r="G50" s="11">
-        <v>-32833902</v>
+        <v>-73140625</v>
       </c>
       <c r="H50" s="11">
-        <v>-7977963</v>
-      </c>
-      <c r="I50" s="11">
-        <v>-7906313</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-3102667</v>
-      </c>
-      <c r="K50" s="11">
-        <v>-52649844</v>
-      </c>
-      <c r="L50" s="11">
-        <v>-18083810</v>
-      </c>
-      <c r="M50" s="11">
-        <v>-32299045</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-62668736</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>14839036</v>
+        <v>13315068</v>
       </c>
       <c r="E51" s="17">
-        <v>30968486</v>
+        <v>-38406843</v>
       </c>
       <c r="F51" s="17">
-        <v>1579431</v>
+        <v>-3330879</v>
       </c>
       <c r="G51" s="17">
-        <v>-66965403</v>
+        <v>-39648015</v>
       </c>
       <c r="H51" s="17">
-        <v>-11558924</v>
-      </c>
-      <c r="I51" s="17">
-        <v>-94407676</v>
-      </c>
-      <c r="J51" s="17">
-        <v>14085004</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-38406843</v>
-      </c>
-      <c r="L51" s="17">
-        <v>-3330879</v>
-      </c>
-      <c r="M51" s="17">
-        <v>14298769</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3760793</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>4369149</v>
+        <v>8575901</v>
       </c>
       <c r="E52" s="19">
-        <v>10062278</v>
+        <v>-11391759</v>
       </c>
       <c r="F52" s="19">
-        <v>-9760327</v>
+        <v>41045147</v>
       </c>
       <c r="G52" s="19">
-        <v>29255276</v>
+        <v>3964471</v>
       </c>
       <c r="H52" s="19">
-        <v>20979040</v>
-      </c>
-      <c r="I52" s="19">
-        <v>18826807</v>
-      </c>
-      <c r="J52" s="19">
-        <v>7805967</v>
-      </c>
-      <c r="K52" s="19">
-        <v>-11391759</v>
-      </c>
-      <c r="L52" s="19">
-        <v>41045147</v>
-      </c>
-      <c r="M52" s="19">
-        <v>4307311</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-36610433</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>24864890</v>
+        <v>93919919</v>
       </c>
       <c r="E53" s="15">
-        <v>29041472</v>
+        <v>102396718</v>
       </c>
       <c r="F53" s="15">
-        <v>44878791</v>
+        <v>102310772</v>
       </c>
       <c r="G53" s="15">
-        <v>36037048</v>
+        <v>143355919</v>
       </c>
       <c r="H53" s="15">
-        <v>54884006</v>
-      </c>
-      <c r="I53" s="15">
-        <v>75291084</v>
-      </c>
-      <c r="J53" s="15">
-        <v>94689853</v>
-      </c>
-      <c r="K53" s="15">
-        <v>102396718</v>
-      </c>
-      <c r="L53" s="15">
-        <v>102310772</v>
-      </c>
-      <c r="M53" s="15">
-        <v>143355919</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+        <v>153225737</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>-192567</v>
+        <v>-99102</v>
       </c>
       <c r="E54" s="11">
-        <v>5775041</v>
+        <v>11305813</v>
       </c>
       <c r="F54" s="11">
-        <v>918584</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>-10408318</v>
+        <v>5905347</v>
       </c>
       <c r="H54" s="11">
-        <v>-571962</v>
-      </c>
-      <c r="I54" s="11">
-        <v>571962</v>
-      </c>
-      <c r="J54" s="11">
-        <v>-99102</v>
-      </c>
-      <c r="K54" s="11">
-        <v>11305813</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>5917576</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>29041472</v>
+        <v>102396718</v>
       </c>
       <c r="E55" s="17">
-        <v>44878791</v>
+        <v>102310772</v>
       </c>
       <c r="F55" s="17">
-        <v>36037048</v>
+        <v>143355919</v>
       </c>
       <c r="G55" s="17">
-        <v>54884006</v>
+        <v>153225737</v>
       </c>
       <c r="H55" s="17">
-        <v>75291084</v>
-      </c>
-      <c r="I55" s="17">
-        <v>94689853</v>
-      </c>
-      <c r="J55" s="17">
-        <v>102396718</v>
-      </c>
-      <c r="K55" s="17">
-        <v>102310772</v>
-      </c>
-      <c r="L55" s="17">
-        <v>143355919</v>
-      </c>
-      <c r="M55" s="17">
-        <v>153580806</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+        <v>116627533</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>0</v>
+        <v>4064372</v>
       </c>
       <c r="E56" s="11">
-        <v>371482</v>
+        <v>-3388108</v>
       </c>
       <c r="F56" s="11">
-        <v>2770803</v>
+        <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>19147365</v>
+        <v>19154793</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>4064372</v>
-      </c>
-      <c r="K56" s="11">
-        <v>-3388108</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2465116</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2533,11 +1768,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/cashflow/quarterly.xlsx
+++ b/database/industries/folad/folad/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799043F7-33A7-4657-A67C-218CC17633E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C68D8-0465-42BD-BBCB-A2C2B21BF9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-11-24 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-05-09 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (4)</t>
   </si>
   <si>
     <t>1401-10-29 (2)</t>
@@ -689,20 +719,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -710,8 +742,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,8 +758,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -732,8 +774,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -741,8 +788,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -752,8 +804,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -763,8 +820,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -772,8 +834,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -793,29 +860,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,10 +920,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -834,73 +936,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>80526039</v>
+      </c>
+      <c r="E12" s="15">
+        <v>34106842</v>
+      </c>
+      <c r="F12" s="15">
+        <v>22388669</v>
+      </c>
+      <c r="G12" s="15">
+        <v>52826349</v>
+      </c>
+      <c r="H12" s="15">
+        <v>208559242</v>
+      </c>
+      <c r="I12" s="15">
         <v>69413459</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>72142734</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>103739162</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>38069602</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>84333910</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-4648627</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-20007683</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3258477</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-677838</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-16739644</v>
+      </c>
+      <c r="I13" s="11">
         <v>-6337096</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>-11823798</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-6558204</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>-16976725</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-33961606</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>79052166</v>
+      </c>
+      <c r="E14" s="17">
+        <v>14099159</v>
+      </c>
+      <c r="F14" s="17">
+        <v>25647146</v>
+      </c>
+      <c r="G14" s="17">
+        <v>52148511</v>
+      </c>
+      <c r="H14" s="17">
+        <v>191819598</v>
+      </c>
+      <c r="I14" s="17">
         <v>63076363</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>60318936</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>97180958</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>21092877</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>50372304</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -908,52 +1060,87 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>51</v>
+      </c>
+      <c r="E16" s="15">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-89</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
         <v>520535</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>-520535</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>576</v>
       </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>6889752</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-2509694</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-7387567</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-967923</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-5513917</v>
+      </c>
+      <c r="I17" s="11">
         <v>-4540728</v>
       </c>
-      <c r="E17" s="11">
+      <c r="J17" s="11">
         <v>-45754657</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-22955134</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-42722903</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-23193343</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -971,20 +1158,35 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>4817365</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>-4614960</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>4278448</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -992,52 +1194,97 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-4871635</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4495125</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-165982</v>
+      </c>
+      <c r="I20" s="15">
         <v>-186127</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>-7387</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <v>-4677</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
+        <v>-685350</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-1837495</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1480122</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>-306000</v>
+      </c>
+      <c r="I21" s="11">
         <v>-200000</v>
       </c>
-      <c r="E21" s="11">
+      <c r="J21" s="11">
         <v>-1309000</v>
       </c>
-      <c r="F21" s="11">
+      <c r="K21" s="11">
         <v>-1000000</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>1000000</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>-4958904</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1050,57 +1297,102 @@
         <v>0</v>
       </c>
       <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>1000000</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>1067848</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>33481</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>368031</v>
+      </c>
+      <c r="I23" s="11">
         <v>-368031</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>377900</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>-5991503</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-11605139</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-4126163</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-2986462</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-4661735</v>
+      </c>
+      <c r="I24" s="15">
         <v>-16590347</v>
       </c>
-      <c r="E24" s="15">
+      <c r="J24" s="15">
         <v>-60168449</v>
       </c>
-      <c r="F24" s="15">
+      <c r="K24" s="15">
         <v>-38457043</v>
       </c>
-      <c r="G24" s="15">
+      <c r="L24" s="15">
         <v>-42401476</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>-40085749</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1113,36 +1405,66 @@
         <v>0</v>
       </c>
       <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
         <v>244375242</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>60396678</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>-106111313</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>60859336</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-15749522</v>
+      </c>
+      <c r="H26" s="15">
+        <v>-80997620</v>
+      </c>
+      <c r="I26" s="15">
         <v>-56500000</v>
       </c>
-      <c r="E26" s="15">
+      <c r="J26" s="15">
         <v>37226096</v>
       </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
         <v>-167480579</v>
       </c>
-      <c r="H26" s="15">
+      <c r="M26" s="15">
         <v>-95536032</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1160,10 +1482,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1181,115 +1518,205 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
+        <v>367057</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>-105594</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
         <v>2526</v>
       </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
         <v>458655</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>27347</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>-28146</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2914</v>
+      </c>
+      <c r="I30" s="15">
         <v>-2914</v>
       </c>
-      <c r="E30" s="15">
+      <c r="J30" s="15">
         <v>26120145</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
         <v>24130831</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>6042363</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>11074580</v>
+      </c>
+      <c r="G31" s="11">
+        <v>93360</v>
+      </c>
+      <c r="H31" s="11">
+        <v>11149324</v>
+      </c>
+      <c r="I31" s="11">
         <v>10049556</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>10732035</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>9607245</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>4622595</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>12175165</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-93576383</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-25438917</v>
+      </c>
+      <c r="F32" s="17">
+        <v>70573533</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-19610547</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-80124985</v>
+      </c>
+      <c r="I32" s="17">
         <v>-67815530</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-33303852</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-52804932</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>22519609</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>-90743530</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-14524217</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-11339758</v>
+      </c>
+      <c r="F33" s="19">
+        <v>96220679</v>
+      </c>
+      <c r="G33" s="19">
+        <v>32537964</v>
+      </c>
+      <c r="H33" s="19">
+        <v>111694613</v>
+      </c>
+      <c r="I33" s="19">
         <v>-4739167</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>27015084</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>44376026</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>43612486</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>-40371226</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1297,10 +1724,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1318,31 +1750,61 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1360,104 +1822,179 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>-15303167</v>
+      </c>
+      <c r="G38" s="11">
+        <v>-144372</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
         <v>-1</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>417868539</v>
+      </c>
+      <c r="E39" s="15">
+        <v>107594386</v>
+      </c>
+      <c r="F39" s="15">
+        <v>318971459</v>
+      </c>
+      <c r="G39" s="15">
+        <v>36904000</v>
+      </c>
+      <c r="H39" s="15">
+        <v>326824568</v>
+      </c>
+      <c r="I39" s="15">
         <v>79331458</v>
       </c>
-      <c r="E39" s="15">
+      <c r="J39" s="15">
         <v>265333316</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>94810740</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>312508750</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>79912320</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-400311479</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-93709274</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-328314863</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-26391903</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-382210114</v>
+      </c>
+      <c r="I40" s="11">
         <v>-49177088</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>-287275882</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-73286387</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>-274266761</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>-2902771</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-7514044</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-7358587</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-9253211</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-2048686</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-6496139</v>
+      </c>
+      <c r="I41" s="15">
         <v>-13786380</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>485570</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>-6771422</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>-4749379</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>-10580020</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="E42" s="11">
-        <v>0</v>
+        <v>264281</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
+        <v>-214335</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
@@ -1465,52 +2002,97 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>-200</v>
+      </c>
+      <c r="F43" s="15">
+        <v>200</v>
+      </c>
+      <c r="G43" s="15">
+        <v>-10000000</v>
+      </c>
+      <c r="H43" s="15">
+        <v>-20049946</v>
+      </c>
+      <c r="I43" s="15">
         <v>49946</v>
       </c>
-      <c r="E43" s="15">
+      <c r="J43" s="15">
         <v>30000000</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
+        <v>-342616</v>
+      </c>
+      <c r="E44" s="11">
+        <v>200</v>
+      </c>
+      <c r="F44" s="11">
+        <v>-17584</v>
+      </c>
+      <c r="G44" s="11">
+        <v>-1900000</v>
+      </c>
+      <c r="H44" s="11">
+        <v>-3799797</v>
+      </c>
+      <c r="I44" s="11">
         <v>-201</v>
       </c>
-      <c r="E44" s="11">
+      <c r="J44" s="11">
         <v>5699998</v>
       </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1528,10 +2110,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1549,10 +2146,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1570,10 +2182,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1591,10 +2218,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1612,155 +2254,275 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-1939151</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-5211375</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-32833902</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-7977963</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-7906313</v>
+      </c>
+      <c r="I50" s="11">
         <v>-3102667</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-52649844</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-18083810</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-73140625</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-62668736</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>30968486</v>
+      </c>
+      <c r="E51" s="17">
+        <v>1579431</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-66965403</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-11558924</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-93637740</v>
+      </c>
+      <c r="I51" s="17">
         <v>13315068</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-38406843</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-3330879</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>-39648015</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>3760793</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>10062278</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-9760327</v>
+      </c>
+      <c r="F52" s="19">
+        <v>29255276</v>
+      </c>
+      <c r="G52" s="19">
+        <v>20979040</v>
+      </c>
+      <c r="H52" s="19">
+        <v>18056873</v>
+      </c>
+      <c r="I52" s="19">
         <v>8575901</v>
       </c>
-      <c r="E52" s="19">
+      <c r="J52" s="19">
         <v>-11391759</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>41045147</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>3964471</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>-36610433</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>29041472</v>
+      </c>
+      <c r="E53" s="15">
+        <v>44878791</v>
+      </c>
+      <c r="F53" s="15">
+        <v>36037048</v>
+      </c>
+      <c r="G53" s="15">
+        <v>54884006</v>
+      </c>
+      <c r="H53" s="15">
+        <v>75291084</v>
+      </c>
+      <c r="I53" s="15">
         <v>93919919</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>102396718</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>102310772</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>143355919</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>153225737</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>5775041</v>
+      </c>
+      <c r="E54" s="11">
+        <v>918584</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-10408318</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-571962</v>
+      </c>
+      <c r="H54" s="11">
+        <v>571962</v>
+      </c>
+      <c r="I54" s="11">
         <v>-99102</v>
       </c>
-      <c r="E54" s="11">
+      <c r="J54" s="11">
         <v>11305813</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
         <v>5905347</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>12229</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>44878791</v>
+      </c>
+      <c r="E55" s="17">
+        <v>36037048</v>
+      </c>
+      <c r="F55" s="17">
+        <v>54884006</v>
+      </c>
+      <c r="G55" s="17">
+        <v>75291084</v>
+      </c>
+      <c r="H55" s="17">
+        <v>93919919</v>
+      </c>
+      <c r="I55" s="17">
         <v>102396718</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>102310772</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>143355919</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>153225737</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>116627533</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>371482</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2770803</v>
+      </c>
+      <c r="F56" s="11">
+        <v>19147365</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
         <v>4064372</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>-3388108</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
         <v>19154793</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>-2465116</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1768,6 +2530,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/cashflow/quarterly.xlsx
+++ b/database/industries/folad/folad/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C68D8-0465-42BD-BBCB-A2C2B21BF9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF895CD6-F633-421D-ADCA-A049CC63DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-11-24 (5)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -97,6 +94,9 @@
     <t>1401-10-29</t>
   </si>
   <si>
+    <t>1402-02-30 (2)</t>
+  </si>
+  <si>
     <t>فعالیتهای عملیاتی</t>
   </si>
   <si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>دریافت‌های نقدی حاصل از صرف سهام</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>وجوه دریافتی بابت فروش سهام شرکت اصلی توسط شرکتهای فرعی / سهام خزانه</t>
@@ -723,18 +720,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -748,7 +746,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +762,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -780,7 +778,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,7 +792,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -810,7 +808,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -826,7 +824,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -840,7 +838,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -876,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -903,16 +901,16 @@
         <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -926,7 +924,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
@@ -942,115 +940,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>80526039</v>
+        <v>34106842</v>
       </c>
       <c r="E12" s="15">
-        <v>34106842</v>
+        <v>22388669</v>
       </c>
       <c r="F12" s="15">
-        <v>22388669</v>
+        <v>52826349</v>
       </c>
       <c r="G12" s="15">
-        <v>52826349</v>
+        <v>208559242</v>
       </c>
       <c r="H12" s="15">
-        <v>208559242</v>
+        <v>69413459</v>
       </c>
       <c r="I12" s="15">
-        <v>69413459</v>
+        <v>72142734</v>
       </c>
       <c r="J12" s="15">
-        <v>72142734</v>
+        <v>103739162</v>
       </c>
       <c r="K12" s="15">
-        <v>103739162</v>
+        <v>38069602</v>
       </c>
       <c r="L12" s="15">
-        <v>38069602</v>
+        <v>84333910</v>
       </c>
       <c r="M12" s="15">
-        <v>84333910</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>232829463</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-4648627</v>
+        <v>-20007683</v>
       </c>
       <c r="E13" s="11">
-        <v>-20007683</v>
+        <v>3258477</v>
       </c>
       <c r="F13" s="11">
-        <v>3258477</v>
+        <v>-677838</v>
       </c>
       <c r="G13" s="11">
-        <v>-677838</v>
+        <v>-16739644</v>
       </c>
       <c r="H13" s="11">
-        <v>-16739644</v>
+        <v>-6337096</v>
       </c>
       <c r="I13" s="11">
-        <v>-6337096</v>
+        <v>-11823798</v>
       </c>
       <c r="J13" s="11">
-        <v>-11823798</v>
+        <v>-6558204</v>
       </c>
       <c r="K13" s="11">
-        <v>-6558204</v>
+        <v>-16976725</v>
       </c>
       <c r="L13" s="11">
-        <v>-16976725</v>
+        <v>-33961606</v>
       </c>
       <c r="M13" s="11">
-        <v>-33961606</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12685842</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>79052166</v>
+        <v>14099159</v>
       </c>
       <c r="E14" s="17">
-        <v>14099159</v>
+        <v>25647146</v>
       </c>
       <c r="F14" s="17">
-        <v>25647146</v>
+        <v>52148511</v>
       </c>
       <c r="G14" s="17">
-        <v>52148511</v>
+        <v>191819598</v>
       </c>
       <c r="H14" s="17">
-        <v>191819598</v>
+        <v>63076363</v>
       </c>
       <c r="I14" s="17">
-        <v>63076363</v>
+        <v>60318936</v>
       </c>
       <c r="J14" s="17">
-        <v>60318936</v>
+        <v>97180958</v>
       </c>
       <c r="K14" s="17">
-        <v>97180958</v>
+        <v>21092877</v>
       </c>
       <c r="L14" s="17">
-        <v>21092877</v>
+        <v>50372304</v>
       </c>
       <c r="M14" s="17">
-        <v>50372304</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>245515305</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
@@ -1066,79 +1064,79 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E16" s="15">
-        <v>6</v>
+        <v>-89</v>
       </c>
       <c r="F16" s="15">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
       </c>
       <c r="H16" s="15">
-        <v>0</v>
+        <v>520535</v>
       </c>
       <c r="I16" s="15">
-        <v>520535</v>
+        <v>-520535</v>
       </c>
       <c r="J16" s="15">
-        <v>-520535</v>
+        <v>0</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="L16" s="15">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-576</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>6889752</v>
+        <v>-2509694</v>
       </c>
       <c r="E17" s="11">
-        <v>-2509694</v>
+        <v>-7387567</v>
       </c>
       <c r="F17" s="11">
-        <v>-7387567</v>
+        <v>-967923</v>
       </c>
       <c r="G17" s="11">
-        <v>-967923</v>
+        <v>-5513917</v>
       </c>
       <c r="H17" s="11">
-        <v>-5513917</v>
+        <v>-4540728</v>
       </c>
       <c r="I17" s="11">
-        <v>-4540728</v>
+        <v>-45754657</v>
       </c>
       <c r="J17" s="11">
-        <v>-45754657</v>
+        <v>-22955134</v>
       </c>
       <c r="K17" s="11">
-        <v>-22955134</v>
+        <v>-42722903</v>
       </c>
       <c r="L17" s="11">
-        <v>-42722903</v>
+        <v>-23193343</v>
       </c>
       <c r="M17" s="11">
-        <v>-23193343</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-43678734</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1174,19 +1172,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>4817365</v>
+        <v>-4614960</v>
       </c>
       <c r="E19" s="11">
-        <v>-4614960</v>
+        <v>4278448</v>
       </c>
       <c r="F19" s="11">
-        <v>4278448</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -1210,79 +1208,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-4871635</v>
       </c>
       <c r="E20" s="15">
-        <v>-4871635</v>
+        <v>4495125</v>
       </c>
       <c r="F20" s="15">
-        <v>4495125</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>0</v>
+        <v>-165982</v>
       </c>
       <c r="H20" s="15">
-        <v>-165982</v>
+        <v>-186127</v>
       </c>
       <c r="I20" s="15">
-        <v>-186127</v>
+        <v>-7387</v>
       </c>
       <c r="J20" s="15">
-        <v>-7387</v>
+        <v>0</v>
       </c>
       <c r="K20" s="15">
-        <v>0</v>
+        <v>-4677</v>
       </c>
       <c r="L20" s="15">
-        <v>-4677</v>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1371558</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>-685350</v>
+        <v>-1837495</v>
       </c>
       <c r="E21" s="11">
-        <v>-1837495</v>
+        <v>1480122</v>
       </c>
       <c r="F21" s="11">
-        <v>1480122</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>-306000</v>
       </c>
       <c r="H21" s="11">
-        <v>-306000</v>
+        <v>-200000</v>
       </c>
       <c r="I21" s="11">
-        <v>-200000</v>
+        <v>-1309000</v>
       </c>
       <c r="J21" s="11">
-        <v>-1309000</v>
+        <v>-1000000</v>
       </c>
       <c r="K21" s="11">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="L21" s="11">
-        <v>1000000</v>
+        <v>-4958904</v>
       </c>
       <c r="M21" s="11">
-        <v>-4958904</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3608904</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
@@ -1309,40 +1307,40 @@
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="L22" s="15">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2234000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1067848</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>33481</v>
       </c>
       <c r="F23" s="11">
-        <v>33481</v>
+        <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>0</v>
+        <v>368031</v>
       </c>
       <c r="H23" s="11">
-        <v>368031</v>
+        <v>-368031</v>
       </c>
       <c r="I23" s="11">
-        <v>-368031</v>
+        <v>377900</v>
       </c>
       <c r="J23" s="11">
-        <v>377900</v>
+        <v>0</v>
       </c>
       <c r="K23" s="11">
         <v>0</v>
@@ -1354,43 +1352,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-5991503</v>
+        <v>-11605139</v>
       </c>
       <c r="E24" s="15">
-        <v>-11605139</v>
+        <v>-4126163</v>
       </c>
       <c r="F24" s="15">
-        <v>-4126163</v>
+        <v>-2986462</v>
       </c>
       <c r="G24" s="15">
-        <v>-2986462</v>
+        <v>-4661735</v>
       </c>
       <c r="H24" s="15">
-        <v>-4661735</v>
+        <v>-16590347</v>
       </c>
       <c r="I24" s="15">
-        <v>-16590347</v>
+        <v>-60168449</v>
       </c>
       <c r="J24" s="15">
-        <v>-60168449</v>
+        <v>-38457043</v>
       </c>
       <c r="K24" s="15">
-        <v>-38457043</v>
+        <v>-42401476</v>
       </c>
       <c r="L24" s="15">
-        <v>-42401476</v>
+        <v>-40085749</v>
       </c>
       <c r="M24" s="15">
-        <v>-40085749</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-26304501</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
@@ -1417,52 +1415,52 @@
         <v>0</v>
       </c>
       <c r="K25" s="11">
-        <v>0</v>
+        <v>244375242</v>
       </c>
       <c r="L25" s="11">
-        <v>244375242</v>
+        <v>60396678</v>
       </c>
       <c r="M25" s="11">
-        <v>60396678</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>63955386</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-106111313</v>
+        <v>0</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>60859336</v>
       </c>
       <c r="F26" s="15">
-        <v>60859336</v>
+        <v>-15749522</v>
       </c>
       <c r="G26" s="15">
-        <v>-15749522</v>
+        <v>-80997620</v>
       </c>
       <c r="H26" s="15">
-        <v>-80997620</v>
+        <v>-56500000</v>
       </c>
       <c r="I26" s="15">
-        <v>-56500000</v>
+        <v>37226096</v>
       </c>
       <c r="J26" s="15">
-        <v>37226096</v>
+        <v>0</v>
       </c>
       <c r="K26" s="15">
-        <v>0</v>
+        <v>-167480579</v>
       </c>
       <c r="L26" s="15">
-        <v>-167480579</v>
+        <v>-95536032</v>
       </c>
       <c r="M26" s="15">
-        <v>-95536032</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-52907477</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>42</v>
       </c>
@@ -1534,28 +1532,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
-        <v>367057</v>
+        <v>0</v>
       </c>
       <c r="E29" s="11">
-        <v>0</v>
+        <v>-105594</v>
       </c>
       <c r="F29" s="11">
-        <v>-105594</v>
+        <v>0</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="I29" s="11">
-        <v>2526</v>
+        <v>-2526</v>
       </c>
       <c r="J29" s="11">
         <v>0</v>
@@ -1564,157 +1562,157 @@
         <v>0</v>
       </c>
       <c r="L29" s="11">
-        <v>0</v>
+        <v>458655</v>
       </c>
       <c r="M29" s="11">
-        <v>458655</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>424436</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>27347</v>
+        <v>0</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>-28146</v>
       </c>
       <c r="F30" s="15">
-        <v>-28146</v>
+        <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>2914</v>
       </c>
       <c r="H30" s="15">
-        <v>2914</v>
+        <v>-2914</v>
       </c>
       <c r="I30" s="15">
-        <v>-2914</v>
+        <v>26122671</v>
       </c>
       <c r="J30" s="15">
-        <v>26120145</v>
+        <v>0</v>
       </c>
       <c r="K30" s="15">
-        <v>0</v>
+        <v>24130831</v>
       </c>
       <c r="L30" s="15">
-        <v>24130831</v>
+        <v>0</v>
       </c>
       <c r="M30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>54375399</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>6042363</v>
+        <v>0</v>
       </c>
       <c r="E31" s="11">
-        <v>0</v>
+        <v>11074580</v>
       </c>
       <c r="F31" s="11">
-        <v>11074580</v>
+        <v>93360</v>
       </c>
       <c r="G31" s="11">
-        <v>93360</v>
+        <v>11149324</v>
       </c>
       <c r="H31" s="11">
-        <v>11149324</v>
+        <v>10049556</v>
       </c>
       <c r="I31" s="11">
-        <v>10049556</v>
+        <v>10732035</v>
       </c>
       <c r="J31" s="11">
-        <v>10732035</v>
+        <v>9607245</v>
       </c>
       <c r="K31" s="11">
-        <v>9607245</v>
+        <v>4622595</v>
       </c>
       <c r="L31" s="11">
-        <v>4622595</v>
+        <v>12175165</v>
       </c>
       <c r="M31" s="11">
-        <v>12175165</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3436486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-93576383</v>
+        <v>-25438917</v>
       </c>
       <c r="E32" s="17">
-        <v>-25438917</v>
+        <v>70573533</v>
       </c>
       <c r="F32" s="17">
-        <v>70573533</v>
+        <v>-19610547</v>
       </c>
       <c r="G32" s="17">
-        <v>-19610547</v>
+        <v>-80124985</v>
       </c>
       <c r="H32" s="17">
-        <v>-80124985</v>
+        <v>-67815530</v>
       </c>
       <c r="I32" s="17">
-        <v>-67815530</v>
+        <v>-33303852</v>
       </c>
       <c r="J32" s="17">
-        <v>-33303852</v>
+        <v>-52804932</v>
       </c>
       <c r="K32" s="17">
-        <v>-52804932</v>
+        <v>22519609</v>
       </c>
       <c r="L32" s="17">
-        <v>22519609</v>
+        <v>-90743530</v>
       </c>
       <c r="M32" s="17">
-        <v>-90743530</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3771765</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>-14524217</v>
+        <v>-11339758</v>
       </c>
       <c r="E33" s="19">
-        <v>-11339758</v>
+        <v>96220679</v>
       </c>
       <c r="F33" s="19">
-        <v>96220679</v>
+        <v>32537964</v>
       </c>
       <c r="G33" s="19">
-        <v>32537964</v>
+        <v>111694613</v>
       </c>
       <c r="H33" s="19">
-        <v>111694613</v>
+        <v>-4739167</v>
       </c>
       <c r="I33" s="19">
-        <v>-4739167</v>
+        <v>27015084</v>
       </c>
       <c r="J33" s="19">
-        <v>27015084</v>
+        <v>44376026</v>
       </c>
       <c r="K33" s="19">
-        <v>44376026</v>
+        <v>43612486</v>
       </c>
       <c r="L33" s="19">
-        <v>43612486</v>
+        <v>-40371226</v>
       </c>
       <c r="M33" s="19">
-        <v>-40371226</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>249287070</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>48</v>
       </c>
@@ -1730,7 +1728,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>49</v>
       </c>
@@ -1766,45 +1764,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1838,31 +1836,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>-15303167</v>
       </c>
       <c r="F38" s="11">
-        <v>-15303167</v>
+        <v>-144372</v>
       </c>
       <c r="G38" s="11">
-        <v>-144372</v>
+        <v>1</v>
       </c>
       <c r="H38" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="11">
         <v>0</v>
@@ -1874,127 +1872,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>417868539</v>
+        <v>107594386</v>
       </c>
       <c r="E39" s="15">
-        <v>107594386</v>
+        <v>318971459</v>
       </c>
       <c r="F39" s="15">
-        <v>318971459</v>
+        <v>36904000</v>
       </c>
       <c r="G39" s="15">
-        <v>36904000</v>
+        <v>326824568</v>
       </c>
       <c r="H39" s="15">
-        <v>326824568</v>
+        <v>79331458</v>
       </c>
       <c r="I39" s="15">
-        <v>79331458</v>
+        <v>265333316</v>
       </c>
       <c r="J39" s="15">
-        <v>265333316</v>
+        <v>94810740</v>
       </c>
       <c r="K39" s="15">
-        <v>94810740</v>
+        <v>312508750</v>
       </c>
       <c r="L39" s="15">
-        <v>312508750</v>
+        <v>79912320</v>
       </c>
       <c r="M39" s="15">
-        <v>79912320</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>185110277</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-400311479</v>
+        <v>-93709274</v>
       </c>
       <c r="E40" s="11">
-        <v>-93709274</v>
+        <v>-328314863</v>
       </c>
       <c r="F40" s="11">
-        <v>-328314863</v>
+        <v>-26391903</v>
       </c>
       <c r="G40" s="11">
-        <v>-26391903</v>
+        <v>-382210114</v>
       </c>
       <c r="H40" s="11">
-        <v>-382210114</v>
+        <v>-49177088</v>
       </c>
       <c r="I40" s="11">
-        <v>-49177088</v>
+        <v>-287275882</v>
       </c>
       <c r="J40" s="11">
-        <v>-287275882</v>
+        <v>-73286387</v>
       </c>
       <c r="K40" s="11">
-        <v>-73286387</v>
+        <v>-274266761</v>
       </c>
       <c r="L40" s="11">
-        <v>-274266761</v>
+        <v>-2902771</v>
       </c>
       <c r="M40" s="11">
-        <v>-2902771</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-162509034</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-7514044</v>
+        <v>-7358587</v>
       </c>
       <c r="E41" s="15">
-        <v>-7358587</v>
+        <v>-9253211</v>
       </c>
       <c r="F41" s="15">
-        <v>-9253211</v>
+        <v>-2048686</v>
       </c>
       <c r="G41" s="15">
-        <v>-2048686</v>
+        <v>-6496139</v>
       </c>
       <c r="H41" s="15">
-        <v>-6496139</v>
+        <v>-13786380</v>
       </c>
       <c r="I41" s="15">
-        <v>-13786380</v>
+        <v>485570</v>
       </c>
       <c r="J41" s="15">
-        <v>485570</v>
+        <v>-6771422</v>
       </c>
       <c r="K41" s="15">
-        <v>-6771422</v>
+        <v>-4749379</v>
       </c>
       <c r="L41" s="15">
-        <v>-4749379</v>
+        <v>-10580020</v>
       </c>
       <c r="M41" s="15">
-        <v>-10580020</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-6219872</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>20000000</v>
+        <v>264281</v>
       </c>
       <c r="E42" s="11">
-        <v>264281</v>
+        <v>-214335</v>
       </c>
       <c r="F42" s="11">
-        <v>-214335</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
@@ -2015,34 +2013,34 @@
         <v>0</v>
       </c>
       <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E43" s="15">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="F43" s="15">
-        <v>200</v>
+        <v>-10000000</v>
       </c>
       <c r="G43" s="15">
-        <v>-10000000</v>
+        <v>-20049946</v>
       </c>
       <c r="H43" s="15">
-        <v>-20049946</v>
+        <v>49946</v>
       </c>
       <c r="I43" s="15">
-        <v>49946</v>
+        <v>30000000</v>
       </c>
       <c r="J43" s="15">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="K43" s="15">
         <v>0</v>
@@ -2054,31 +2052,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
-        <v>-342616</v>
+        <v>200</v>
       </c>
       <c r="E44" s="11">
-        <v>200</v>
+        <v>-17584</v>
       </c>
       <c r="F44" s="11">
-        <v>-17584</v>
+        <v>-1900000</v>
       </c>
       <c r="G44" s="11">
-        <v>-1900000</v>
+        <v>-3799797</v>
       </c>
       <c r="H44" s="11">
-        <v>-3799797</v>
+        <v>-201</v>
       </c>
       <c r="I44" s="11">
-        <v>-201</v>
+        <v>5699998</v>
       </c>
       <c r="J44" s="11">
-        <v>5699998</v>
+        <v>0</v>
       </c>
       <c r="K44" s="11">
         <v>0</v>
@@ -2087,12 +2085,12 @@
         <v>0</v>
       </c>
       <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3106000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2126,9 +2124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2162,9 +2160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2198,9 +2196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2234,9 +2232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2270,259 +2268,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-1939151</v>
+        <v>-5211375</v>
       </c>
       <c r="E50" s="11">
-        <v>-5211375</v>
+        <v>-32833902</v>
       </c>
       <c r="F50" s="11">
-        <v>-32833902</v>
+        <v>-7977963</v>
       </c>
       <c r="G50" s="11">
-        <v>-7977963</v>
+        <v>-7906313</v>
       </c>
       <c r="H50" s="11">
-        <v>-7906313</v>
+        <v>-3102667</v>
       </c>
       <c r="I50" s="11">
-        <v>-3102667</v>
+        <v>-52649844</v>
       </c>
       <c r="J50" s="11">
-        <v>-52649844</v>
+        <v>-18083810</v>
       </c>
       <c r="K50" s="11">
-        <v>-18083810</v>
+        <v>-73140625</v>
       </c>
       <c r="L50" s="11">
-        <v>-73140625</v>
+        <v>-62668736</v>
       </c>
       <c r="M50" s="11">
-        <v>-62668736</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-267692564</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>30968486</v>
+        <v>1579431</v>
       </c>
       <c r="E51" s="17">
-        <v>1579431</v>
+        <v>-66965403</v>
       </c>
       <c r="F51" s="17">
-        <v>-66965403</v>
+        <v>-11558924</v>
       </c>
       <c r="G51" s="17">
-        <v>-11558924</v>
+        <v>-93637740</v>
       </c>
       <c r="H51" s="17">
-        <v>-93637740</v>
+        <v>13315068</v>
       </c>
       <c r="I51" s="17">
-        <v>13315068</v>
+        <v>-38406843</v>
       </c>
       <c r="J51" s="17">
-        <v>-38406843</v>
+        <v>-3330879</v>
       </c>
       <c r="K51" s="17">
-        <v>-3330879</v>
+        <v>-39648015</v>
       </c>
       <c r="L51" s="17">
-        <v>-39648015</v>
+        <v>3760793</v>
       </c>
       <c r="M51" s="17">
-        <v>3760793</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-214417193</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>10062278</v>
+        <v>4671100</v>
       </c>
       <c r="E52" s="19">
-        <v>-9760327</v>
+        <v>29255276</v>
       </c>
       <c r="F52" s="19">
-        <v>29255276</v>
+        <v>20979040</v>
       </c>
       <c r="G52" s="19">
-        <v>20979040</v>
+        <v>18056873</v>
       </c>
       <c r="H52" s="19">
-        <v>18056873</v>
+        <v>8575901</v>
       </c>
       <c r="I52" s="19">
-        <v>8575901</v>
+        <v>-11391759</v>
       </c>
       <c r="J52" s="19">
-        <v>-11391759</v>
+        <v>41045147</v>
       </c>
       <c r="K52" s="19">
-        <v>41045147</v>
+        <v>3964471</v>
       </c>
       <c r="L52" s="19">
-        <v>3964471</v>
+        <v>-36610433</v>
       </c>
       <c r="M52" s="19">
-        <v>-36610433</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>34869877</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>29041472</v>
+        <v>44878791</v>
       </c>
       <c r="E53" s="15">
-        <v>44878791</v>
+        <v>36037048</v>
       </c>
       <c r="F53" s="15">
-        <v>36037048</v>
+        <v>54884006</v>
       </c>
       <c r="G53" s="15">
-        <v>54884006</v>
+        <v>75291084</v>
       </c>
       <c r="H53" s="15">
-        <v>75291084</v>
+        <v>93919919</v>
       </c>
       <c r="I53" s="15">
-        <v>93919919</v>
+        <v>102396718</v>
       </c>
       <c r="J53" s="15">
-        <v>102396718</v>
+        <v>102310772</v>
       </c>
       <c r="K53" s="15">
-        <v>102310772</v>
+        <v>143355919</v>
       </c>
       <c r="L53" s="15">
-        <v>143355919</v>
+        <v>153225737</v>
       </c>
       <c r="M53" s="15">
-        <v>153225737</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>116627533</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>5775041</v>
+        <v>918584</v>
       </c>
       <c r="E54" s="11">
-        <v>918584</v>
+        <v>-10408318</v>
       </c>
       <c r="F54" s="11">
-        <v>-10408318</v>
+        <v>-571962</v>
       </c>
       <c r="G54" s="11">
-        <v>-571962</v>
+        <v>571962</v>
       </c>
       <c r="H54" s="11">
-        <v>571962</v>
+        <v>-99102</v>
       </c>
       <c r="I54" s="11">
-        <v>-99102</v>
+        <v>11305813</v>
       </c>
       <c r="J54" s="11">
-        <v>11305813</v>
+        <v>0</v>
       </c>
       <c r="K54" s="11">
-        <v>0</v>
+        <v>5905347</v>
       </c>
       <c r="L54" s="11">
-        <v>5905347</v>
+        <v>12229</v>
       </c>
       <c r="M54" s="11">
-        <v>12229</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-37693661</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>44878791</v>
+        <v>36037048</v>
       </c>
       <c r="E55" s="17">
-        <v>36037048</v>
+        <v>54884006</v>
       </c>
       <c r="F55" s="17">
-        <v>54884006</v>
+        <v>75291084</v>
       </c>
       <c r="G55" s="17">
-        <v>75291084</v>
+        <v>93919919</v>
       </c>
       <c r="H55" s="17">
-        <v>93919919</v>
+        <v>102396718</v>
       </c>
       <c r="I55" s="17">
-        <v>102396718</v>
+        <v>102310772</v>
       </c>
       <c r="J55" s="17">
-        <v>102310772</v>
+        <v>143355919</v>
       </c>
       <c r="K55" s="17">
-        <v>143355919</v>
+        <v>153225737</v>
       </c>
       <c r="L55" s="17">
-        <v>153225737</v>
+        <v>116627533</v>
       </c>
       <c r="M55" s="17">
-        <v>116627533</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>113803749</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>371482</v>
+        <v>2770803</v>
       </c>
       <c r="E56" s="11">
-        <v>2770803</v>
+        <v>19147365</v>
       </c>
       <c r="F56" s="11">
-        <v>19147365</v>
+        <v>0</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
+        <v>4064372</v>
       </c>
       <c r="I56" s="11">
-        <v>4064372</v>
+        <v>-3388108</v>
       </c>
       <c r="J56" s="11">
-        <v>-3388108</v>
+        <v>0</v>
       </c>
       <c r="K56" s="11">
-        <v>0</v>
+        <v>19154793</v>
       </c>
       <c r="L56" s="11">
-        <v>19154793</v>
+        <v>-2465116</v>
       </c>
       <c r="M56" s="11">
-        <v>-2465116</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>38934785</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/folad/folad/cashflow/quarterly.xlsx
+++ b/database/industries/folad/folad/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF895CD6-F633-421D-ADCA-A049CC63DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0428D29D-32A0-471D-A59B-68E11453D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-11-14 (3)</t>
+  </si>
+  <si>
+    <t>1399-05-09 (11)</t>
+  </si>
+  <si>
+    <t>1399-05-11 (3)</t>
+  </si>
+  <si>
+    <t>1399-11-13 (5)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-05-07 (12)</t>
+  </si>
+  <si>
+    <t>1400-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-11-24 (5)</t>
+  </si>
+  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -85,16 +139,25 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1402-02-30 (8)</t>
-  </si>
-  <si>
-    <t>1401-04-30</t>
+    <t>1402-04-26 (10)</t>
+  </si>
+  <si>
+    <t>1402-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-29 (3)</t>
   </si>
   <si>
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-30 (2)</t>
+    <t>1402-07-29 (6)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -173,6 +236,9 @@
   </si>
   <si>
     <t>دریافت‌های نقدی حاصل از صرف سهام</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>وجوه دریافتی بابت فروش سهام شرکت اصلی توسط شرکتهای فرعی / سهام خزانه</t>
@@ -716,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,9 +796,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -791,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -823,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -837,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -873,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -923,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -939,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>4608880</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-4380008</v>
+      </c>
+      <c r="F12" s="15">
+        <v>11509191</v>
+      </c>
+      <c r="G12" s="15">
+        <v>23286906</v>
+      </c>
+      <c r="H12" s="15">
+        <v>6965352</v>
+      </c>
+      <c r="I12" s="15">
+        <v>48704322</v>
+      </c>
+      <c r="J12" s="15">
+        <v>36737255</v>
+      </c>
+      <c r="K12" s="15">
+        <v>80526039</v>
+      </c>
+      <c r="L12" s="15">
         <v>34106842</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>22388669</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>52826349</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>208559242</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>69413459</v>
       </c>
-      <c r="I12" s="15">
-        <v>72142734</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="Q12" s="15">
+        <v>69060855</v>
+      </c>
+      <c r="R12" s="15">
         <v>103739162</v>
       </c>
-      <c r="K12" s="15">
-        <v>38069602</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="S12" s="15">
+        <v>296120743</v>
+      </c>
+      <c r="T12" s="15">
         <v>84333910</v>
       </c>
-      <c r="M12" s="15">
-        <v>232829463</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>201890239</v>
+      </c>
+      <c r="V12" s="15">
+        <v>208905712</v>
+      </c>
+      <c r="W12" s="15">
+        <v>123675332</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-4308469</v>
+      </c>
+      <c r="E13" s="11">
+        <v>128609</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-7393015</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4378613</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-3028693</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-4560424</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-3174754</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-4648627</v>
+      </c>
+      <c r="L13" s="11">
         <v>-20007683</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>3258477</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>-677838</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>-16739644</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>-6337096</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>-11823798</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>-6558204</v>
       </c>
-      <c r="K13" s="11">
-        <v>-16976725</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="S13" s="11">
+        <v>-29020172</v>
+      </c>
+      <c r="T13" s="11">
         <v>-33961606</v>
       </c>
-      <c r="M13" s="11">
-        <v>12685842</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="11">
+        <v>12680548</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-12135000</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-34491938</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>300411</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-4251399</v>
+      </c>
+      <c r="F14" s="17">
+        <v>4116176</v>
+      </c>
+      <c r="G14" s="17">
+        <v>27665519</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3936659</v>
+      </c>
+      <c r="I14" s="17">
+        <v>44143898</v>
+      </c>
+      <c r="J14" s="17">
+        <v>33562501</v>
+      </c>
+      <c r="K14" s="17">
+        <v>75877412</v>
+      </c>
+      <c r="L14" s="17">
         <v>14099159</v>
       </c>
-      <c r="E14" s="17">
+      <c r="M14" s="17">
         <v>25647146</v>
       </c>
-      <c r="F14" s="17">
+      <c r="N14" s="17">
         <v>52148511</v>
       </c>
-      <c r="G14" s="17">
+      <c r="O14" s="17">
         <v>191819598</v>
       </c>
-      <c r="H14" s="17">
+      <c r="P14" s="17">
         <v>63076363</v>
       </c>
-      <c r="I14" s="17">
-        <v>60318936</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="Q14" s="17">
+        <v>57237057</v>
+      </c>
+      <c r="R14" s="17">
         <v>97180958</v>
       </c>
-      <c r="K14" s="17">
-        <v>21092877</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="S14" s="17">
+        <v>267100571</v>
+      </c>
+      <c r="T14" s="17">
         <v>50372304</v>
       </c>
-      <c r="M14" s="17">
-        <v>245515305</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="17">
+        <v>214570787</v>
+      </c>
+      <c r="V14" s="17">
+        <v>196770712</v>
+      </c>
+      <c r="W14" s="17">
+        <v>89183394</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1063,82 +1374,152 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>144</v>
+      </c>
+      <c r="E16" s="15">
+        <v>-144</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>7090</v>
+      </c>
+      <c r="J16" s="15">
+        <v>32</v>
+      </c>
+      <c r="K16" s="15">
+        <v>51</v>
+      </c>
+      <c r="L16" s="15">
         <v>6</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>-89</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
         <v>520535</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>-520535</v>
       </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>576</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>-576</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>2253</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>1298242</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-5994329</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-3090300</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-2354605</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-2996423</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-11424223</v>
+      </c>
+      <c r="K17" s="11">
+        <v>6889752</v>
+      </c>
+      <c r="L17" s="11">
         <v>-2509694</v>
       </c>
-      <c r="E17" s="11">
+      <c r="M17" s="11">
         <v>-7387567</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>-967923</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>-5513917</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>-4540728</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>-45754657</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>-22955134</v>
       </c>
-      <c r="K17" s="11">
-        <v>-42722903</v>
-      </c>
-      <c r="L17" s="11">
+      <c r="S17" s="11">
+        <v>-33822091</v>
+      </c>
+      <c r="T17" s="11">
         <v>-23193343</v>
       </c>
-      <c r="M17" s="11">
-        <v>-43678734</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="11">
+        <v>-37641156</v>
+      </c>
+      <c r="V17" s="11">
+        <v>-14423220</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-68391569</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1171,118 +1552,238 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>4817365</v>
+      </c>
+      <c r="L19" s="11">
         <v>-4614960</v>
       </c>
-      <c r="E19" s="11">
+      <c r="M19" s="11">
         <v>4278448</v>
       </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-3046621</v>
+      </c>
+      <c r="H20" s="15">
+        <v>3036000</v>
+      </c>
+      <c r="I20" s="15">
+        <v>-5019581</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <v>-4871635</v>
       </c>
-      <c r="E20" s="15">
+      <c r="M20" s="15">
         <v>4495125</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
         <v>-165982</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>-186127</v>
       </c>
-      <c r="I20" s="15">
-        <v>-7387</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-4677</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>-1371558</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q20" s="15">
+        <v>351023</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>-1086</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>-1741491</v>
+      </c>
+      <c r="V20" s="15">
+        <v>-3869</v>
+      </c>
+      <c r="W20" s="15">
+        <v>-97688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>-1112546</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-569434</v>
+      </c>
+      <c r="H21" s="11">
+        <v>-374055</v>
+      </c>
+      <c r="I21" s="11">
+        <v>-3852198</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-130000</v>
+      </c>
+      <c r="K21" s="11">
+        <v>-685350</v>
+      </c>
+      <c r="L21" s="11">
         <v>-1837495</v>
       </c>
-      <c r="E21" s="11">
+      <c r="M21" s="11">
         <v>1480122</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
         <v>-306000</v>
       </c>
-      <c r="H21" s="11">
+      <c r="P21" s="11">
         <v>-200000</v>
       </c>
-      <c r="I21" s="11">
+      <c r="Q21" s="11">
         <v>-1309000</v>
       </c>
-      <c r="J21" s="11">
+      <c r="R21" s="11">
         <v>-1000000</v>
       </c>
-      <c r="K21" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="L21" s="11">
+      <c r="S21" s="11">
+        <v>-815000</v>
+      </c>
+      <c r="T21" s="11">
         <v>-4958904</v>
       </c>
-      <c r="M21" s="11">
-        <v>3608904</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="11">
+        <v>4958904</v>
+      </c>
+      <c r="V21" s="11">
+        <v>-3748495</v>
+      </c>
+      <c r="W21" s="11">
+        <v>1048495</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1307,90 +1808,180 @@
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <v>2234000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>-1000000</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>6458372</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>15123</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1067848</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
         <v>33481</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
         <v>368031</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>-368031</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>377900</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>377900</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>350000</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>-10046218</v>
+      </c>
+      <c r="E24" s="15">
+        <v>10252782</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-2073158</v>
+      </c>
+      <c r="G24" s="15">
+        <v>467578</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-7473761</v>
+      </c>
+      <c r="I24" s="15">
+        <v>6152165</v>
+      </c>
+      <c r="J24" s="15">
+        <v>-3174204</v>
+      </c>
+      <c r="K24" s="15">
+        <v>-5991503</v>
+      </c>
+      <c r="L24" s="15">
         <v>-11605139</v>
       </c>
-      <c r="E24" s="15">
+      <c r="M24" s="15">
         <v>-4126163</v>
       </c>
-      <c r="F24" s="15">
+      <c r="N24" s="15">
         <v>-2986462</v>
       </c>
-      <c r="G24" s="15">
+      <c r="O24" s="15">
         <v>-4661735</v>
       </c>
-      <c r="H24" s="15">
+      <c r="P24" s="15">
         <v>-16590347</v>
       </c>
-      <c r="I24" s="15">
+      <c r="Q24" s="15">
         <v>-60168449</v>
       </c>
-      <c r="J24" s="15">
+      <c r="R24" s="15">
         <v>-38457043</v>
       </c>
-      <c r="K24" s="15">
-        <v>-42401476</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="S24" s="15">
+        <v>-45949950</v>
+      </c>
+      <c r="T24" s="15">
         <v>-40085749</v>
       </c>
-      <c r="M24" s="15">
-        <v>-26304501</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="15">
+        <v>10968136</v>
+      </c>
+      <c r="V24" s="15">
+        <v>-7462128</v>
+      </c>
+      <c r="W24" s="15">
+        <v>1315446</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1415,54 +2006,114 @@
         <v>0</v>
       </c>
       <c r="K25" s="11">
-        <v>244375242</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
         <v>60396678</v>
       </c>
-      <c r="M25" s="11">
-        <v>63955386</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="11">
+        <v>10290224</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-4747266</v>
       </c>
       <c r="E26" s="15">
+        <v>4747266</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>-3650771</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-34394457</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-106111313</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
         <v>60859336</v>
       </c>
-      <c r="F26" s="15">
+      <c r="N26" s="15">
         <v>-15749522</v>
       </c>
-      <c r="G26" s="15">
+      <c r="O26" s="15">
         <v>-80997620</v>
       </c>
-      <c r="H26" s="15">
+      <c r="P26" s="15">
         <v>-56500000</v>
       </c>
-      <c r="I26" s="15">
+      <c r="Q26" s="15">
         <v>37226096</v>
       </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <v>-167480579</v>
-      </c>
-      <c r="L26" s="15">
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>-116021046</v>
+      </c>
+      <c r="T26" s="15">
         <v>-95536032</v>
       </c>
-      <c r="M26" s="15">
-        <v>-52907477</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="15">
+        <v>895664</v>
+      </c>
+      <c r="V26" s="15">
+        <v>-41668744</v>
+      </c>
+      <c r="W26" s="15">
+        <v>-77937616</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1495,17 +2146,47 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
         <v>0</v>
       </c>
       <c r="E28" s="15">
-        <v>0</v>
+        <v>-74500</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1531,190 +2212,370 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>367057</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
         <v>-105594</v>
       </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
         <v>2526</v>
       </c>
-      <c r="I29" s="11">
+      <c r="Q29" s="11">
         <v>-2526</v>
       </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
         <v>458655</v>
       </c>
-      <c r="M29" s="11">
-        <v>424436</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U29" s="11">
+        <v>-458655</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E30" s="15">
+        <v>152414</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2135</v>
+      </c>
+      <c r="I30" s="15">
+        <v>-571</v>
+      </c>
+      <c r="J30" s="15">
+        <v>799</v>
+      </c>
+      <c r="K30" s="15">
+        <v>27347</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
         <v>-28146</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
         <v>2914</v>
       </c>
-      <c r="H30" s="15">
+      <c r="P30" s="15">
         <v>-2914</v>
       </c>
-      <c r="I30" s="15">
+      <c r="Q30" s="15">
         <v>26122671</v>
       </c>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <v>24130831</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>54375399</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>26122671</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>-10222881</v>
+      </c>
+      <c r="V30" s="15">
+        <v>1109896</v>
+      </c>
+      <c r="W30" s="15">
+        <v>56759464</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>0</v>
+        <v>495439</v>
       </c>
       <c r="E31" s="11">
+        <v>775096</v>
+      </c>
+      <c r="F31" s="11">
+        <v>270015</v>
+      </c>
+      <c r="G31" s="11">
+        <v>222339</v>
+      </c>
+      <c r="H31" s="11">
+        <v>293110</v>
+      </c>
+      <c r="I31" s="11">
+        <v>901536</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1882428</v>
+      </c>
+      <c r="K31" s="11">
+        <v>6042363</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
         <v>11074580</v>
       </c>
-      <c r="F31" s="11">
+      <c r="N31" s="11">
         <v>93360</v>
       </c>
-      <c r="G31" s="11">
+      <c r="O31" s="11">
         <v>11149324</v>
       </c>
-      <c r="H31" s="11">
+      <c r="P31" s="11">
         <v>10049556</v>
       </c>
-      <c r="I31" s="11">
+      <c r="Q31" s="11">
         <v>10732035</v>
       </c>
-      <c r="J31" s="11">
+      <c r="R31" s="11">
         <v>9607245</v>
       </c>
-      <c r="K31" s="11">
-        <v>4622595</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="S31" s="11">
+        <v>22417030</v>
+      </c>
+      <c r="T31" s="11">
         <v>12175165</v>
       </c>
-      <c r="M31" s="11">
-        <v>3436486</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="11">
+        <v>4209925</v>
+      </c>
+      <c r="V31" s="11">
+        <v>0</v>
+      </c>
+      <c r="W31" s="11">
+        <v>27331159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-12999642</v>
+      </c>
+      <c r="E32" s="17">
+        <v>8746041</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-1803141</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-6001317</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-6871176</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-8458752</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-47239625</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-93576383</v>
+      </c>
+      <c r="L32" s="17">
         <v>-25438917</v>
       </c>
-      <c r="E32" s="17">
+      <c r="M32" s="17">
         <v>70573533</v>
       </c>
-      <c r="F32" s="17">
+      <c r="N32" s="17">
         <v>-19610547</v>
       </c>
-      <c r="G32" s="17">
+      <c r="O32" s="17">
         <v>-80124985</v>
       </c>
-      <c r="H32" s="17">
+      <c r="P32" s="17">
         <v>-67815530</v>
       </c>
-      <c r="I32" s="17">
-        <v>-33303852</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="Q32" s="17">
+        <v>-32945442</v>
+      </c>
+      <c r="R32" s="17">
         <v>-52804932</v>
       </c>
-      <c r="K32" s="17">
-        <v>22519609</v>
-      </c>
-      <c r="L32" s="17">
+      <c r="S32" s="17">
+        <v>-147691572</v>
+      </c>
+      <c r="T32" s="17">
         <v>-90743530</v>
       </c>
-      <c r="M32" s="17">
-        <v>3771765</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="17">
+        <v>-19389077</v>
+      </c>
+      <c r="V32" s="17">
+        <v>-66196560</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-53513937</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-12699231</v>
+      </c>
+      <c r="E33" s="19">
+        <v>4494642</v>
+      </c>
+      <c r="F33" s="19">
+        <v>2313035</v>
+      </c>
+      <c r="G33" s="19">
+        <v>21664202</v>
+      </c>
+      <c r="H33" s="19">
+        <v>-2934517</v>
+      </c>
+      <c r="I33" s="19">
+        <v>35685146</v>
+      </c>
+      <c r="J33" s="19">
+        <v>-13677124</v>
+      </c>
+      <c r="K33" s="19">
+        <v>-17698971</v>
+      </c>
+      <c r="L33" s="19">
         <v>-11339758</v>
       </c>
-      <c r="E33" s="19">
+      <c r="M33" s="19">
         <v>96220679</v>
       </c>
-      <c r="F33" s="19">
+      <c r="N33" s="19">
         <v>32537964</v>
       </c>
-      <c r="G33" s="19">
+      <c r="O33" s="19">
         <v>111694613</v>
       </c>
-      <c r="H33" s="19">
+      <c r="P33" s="19">
         <v>-4739167</v>
       </c>
-      <c r="I33" s="19">
-        <v>27015084</v>
-      </c>
-      <c r="J33" s="19">
+      <c r="Q33" s="19">
+        <v>24291615</v>
+      </c>
+      <c r="R33" s="19">
         <v>44376026</v>
       </c>
-      <c r="K33" s="19">
-        <v>43612486</v>
-      </c>
-      <c r="L33" s="19">
+      <c r="S33" s="19">
+        <v>119408999</v>
+      </c>
+      <c r="T33" s="19">
         <v>-40371226</v>
       </c>
-      <c r="M33" s="19">
-        <v>249287070</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U33" s="19">
+        <v>195181710</v>
+      </c>
+      <c r="V33" s="19">
+        <v>130574152</v>
+      </c>
+      <c r="W33" s="19">
+        <v>35669457</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1727,10 +2588,20 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1763,26 +2634,56 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="D36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
@@ -1799,10 +2700,40 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1835,262 +2766,502 @@
       <c r="M37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>3493046</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>-15303167</v>
       </c>
-      <c r="F38" s="11">
+      <c r="N38" s="11">
         <v>-144372</v>
       </c>
-      <c r="G38" s="11">
+      <c r="O38" s="11">
         <v>1</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
         <v>-1</v>
       </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>-144372</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>-17599000</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>-137905936</v>
+      </c>
+      <c r="E39" s="15">
+        <v>346061474</v>
+      </c>
+      <c r="F39" s="15">
+        <v>140495683</v>
+      </c>
+      <c r="G39" s="15">
+        <v>227756478</v>
+      </c>
+      <c r="H39" s="15">
+        <v>52034289</v>
+      </c>
+      <c r="I39" s="15">
+        <v>318723108</v>
+      </c>
+      <c r="J39" s="15">
+        <v>126405666</v>
+      </c>
+      <c r="K39" s="15">
+        <v>417868539</v>
+      </c>
+      <c r="L39" s="15">
         <v>107594386</v>
       </c>
-      <c r="E39" s="15">
+      <c r="M39" s="15">
         <v>318971459</v>
       </c>
-      <c r="F39" s="15">
+      <c r="N39" s="15">
         <v>36904000</v>
       </c>
-      <c r="G39" s="15">
+      <c r="O39" s="15">
         <v>326824568</v>
       </c>
-      <c r="H39" s="15">
+      <c r="P39" s="15">
         <v>79331458</v>
       </c>
-      <c r="I39" s="15">
+      <c r="Q39" s="15">
         <v>265333316</v>
       </c>
-      <c r="J39" s="15">
+      <c r="R39" s="15">
         <v>94810740</v>
       </c>
-      <c r="K39" s="15">
-        <v>312508750</v>
-      </c>
-      <c r="L39" s="15">
+      <c r="S39" s="15">
+        <v>613582602</v>
+      </c>
+      <c r="T39" s="15">
         <v>79912320</v>
       </c>
-      <c r="M39" s="15">
-        <v>185110277</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U39" s="15">
+        <v>310507094</v>
+      </c>
+      <c r="V39" s="15">
+        <v>209386741</v>
+      </c>
+      <c r="W39" s="15">
+        <v>261456765</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>146112910</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-345345716</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-135277515</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-232304606</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-42433987</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-307352278</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-111703548</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-400311479</v>
+      </c>
+      <c r="L40" s="11">
         <v>-93709274</v>
       </c>
-      <c r="E40" s="11">
+      <c r="M40" s="11">
         <v>-328314863</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>-26391903</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>-382210114</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>-49177088</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>-287275882</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>-73286387</v>
       </c>
-      <c r="K40" s="11">
-        <v>-274266761</v>
-      </c>
-      <c r="L40" s="11">
+      <c r="S40" s="11">
+        <v>-641718654</v>
+      </c>
+      <c r="T40" s="11">
         <v>-2902771</v>
       </c>
-      <c r="M40" s="11">
-        <v>-162509034</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U40" s="11">
+        <v>-256655751</v>
+      </c>
+      <c r="V40" s="11">
+        <v>-236823055</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-219523574</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-2216550</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-2603725</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-3067398</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-3412154</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-3827332</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-3299060</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-3448608</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-7514044</v>
+      </c>
+      <c r="L41" s="15">
         <v>-7358587</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>-9253211</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>-2048686</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>-6496139</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>-13786380</v>
       </c>
-      <c r="I41" s="15">
-        <v>485570</v>
-      </c>
-      <c r="J41" s="15">
+      <c r="Q41" s="15">
+        <v>3209039</v>
+      </c>
+      <c r="R41" s="15">
         <v>-6771422</v>
       </c>
-      <c r="K41" s="15">
-        <v>-4749379</v>
-      </c>
-      <c r="L41" s="15">
+      <c r="S41" s="15">
+        <v>-6650947</v>
+      </c>
+      <c r="T41" s="15">
         <v>-10580020</v>
       </c>
-      <c r="M41" s="15">
-        <v>-6219872</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U41" s="15">
+        <v>-6934396</v>
+      </c>
+      <c r="V41" s="15">
+        <v>-11526122</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-13245982</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1949211</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="K42" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="L42" s="11">
         <v>264281</v>
       </c>
-      <c r="E42" s="11">
+      <c r="M42" s="11">
         <v>-214335</v>
       </c>
-      <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
         <v>40000000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>-1949211</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
         <v>-200</v>
       </c>
-      <c r="E43" s="15">
+      <c r="M43" s="15">
         <v>200</v>
       </c>
-      <c r="F43" s="15">
+      <c r="N43" s="15">
         <v>-10000000</v>
       </c>
-      <c r="G43" s="15">
+      <c r="O43" s="15">
         <v>-20049946</v>
       </c>
-      <c r="H43" s="15">
+      <c r="P43" s="15">
         <v>49946</v>
       </c>
-      <c r="I43" s="15">
+      <c r="Q43" s="15">
         <v>30000000</v>
       </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>-30049946</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
+        <v>99726</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>-420974</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-342616</v>
+      </c>
+      <c r="L44" s="11">
         <v>200</v>
       </c>
-      <c r="E44" s="11">
+      <c r="M44" s="11">
         <v>-17584</v>
       </c>
-      <c r="F44" s="11">
+      <c r="N44" s="11">
         <v>-1900000</v>
       </c>
-      <c r="G44" s="11">
+      <c r="O44" s="11">
         <v>-3799797</v>
       </c>
-      <c r="H44" s="11">
+      <c r="P44" s="11">
         <v>-201</v>
       </c>
-      <c r="I44" s="11">
+      <c r="Q44" s="11">
         <v>5699998</v>
       </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>-3106000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>-5699797</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>-4234520</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2123,17 +3294,47 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
         <v>0</v>
       </c>
       <c r="E46" s="11">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -2159,17 +3360,47 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
         <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>-99726</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
@@ -2195,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2231,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2267,260 +3558,500 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>-2094465</v>
+      </c>
+      <c r="W49" s="15">
+        <v>2094465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-1546060</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-6287546</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-13611529</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-1710319</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-30795823</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-3207237</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-1939151</v>
+      </c>
+      <c r="L50" s="11">
         <v>-5211375</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>-32833902</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>-7977963</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>-7906313</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>-3102667</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>-52649844</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>-18083810</v>
       </c>
-      <c r="K50" s="11">
-        <v>-73140625</v>
-      </c>
-      <c r="L50" s="11">
+      <c r="S50" s="11">
+        <v>-53552977</v>
+      </c>
+      <c r="T50" s="11">
         <v>-62668736</v>
       </c>
-      <c r="M50" s="11">
-        <v>-267692564</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U50" s="11">
+        <v>-259046911</v>
+      </c>
+      <c r="V50" s="11">
+        <v>-110241088</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-48354431</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>4544090</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-7326028</v>
+      </c>
+      <c r="F51" s="17">
+        <v>2150770</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-21571811</v>
+      </c>
+      <c r="H51" s="17">
+        <v>4062651</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-25094238</v>
+      </c>
+      <c r="J51" s="17">
+        <v>18046273</v>
+      </c>
+      <c r="K51" s="17">
+        <v>27761249</v>
+      </c>
+      <c r="L51" s="17">
         <v>1579431</v>
       </c>
-      <c r="E51" s="17">
+      <c r="M51" s="17">
         <v>-66965403</v>
       </c>
-      <c r="F51" s="17">
+      <c r="N51" s="17">
         <v>-11558924</v>
       </c>
-      <c r="G51" s="17">
+      <c r="O51" s="17">
         <v>-93637740</v>
       </c>
-      <c r="H51" s="17">
+      <c r="P51" s="17">
         <v>13315068</v>
       </c>
-      <c r="I51" s="17">
-        <v>-38406843</v>
-      </c>
-      <c r="J51" s="17">
+      <c r="Q51" s="17">
+        <v>-35683374</v>
+      </c>
+      <c r="R51" s="17">
         <v>-3330879</v>
       </c>
-      <c r="K51" s="17">
-        <v>-39648015</v>
-      </c>
-      <c r="L51" s="17">
+      <c r="S51" s="17">
+        <v>-124234091</v>
+      </c>
+      <c r="T51" s="17">
         <v>3760793</v>
       </c>
-      <c r="M51" s="17">
-        <v>-214417193</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U51" s="17">
+        <v>-226235918</v>
+      </c>
+      <c r="V51" s="17">
+        <v>-151297989</v>
+      </c>
+      <c r="W51" s="17">
+        <v>18192723</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-8155141</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-2831386</v>
+      </c>
+      <c r="F52" s="19">
+        <v>4463805</v>
+      </c>
+      <c r="G52" s="19">
+        <v>92391</v>
+      </c>
+      <c r="H52" s="19">
+        <v>1128134</v>
+      </c>
+      <c r="I52" s="19">
+        <v>10590908</v>
+      </c>
+      <c r="J52" s="19">
+        <v>4369149</v>
+      </c>
+      <c r="K52" s="19">
+        <v>10062278</v>
+      </c>
+      <c r="L52" s="19">
         <v>4671100</v>
       </c>
-      <c r="E52" s="19">
+      <c r="M52" s="19">
         <v>29255276</v>
       </c>
-      <c r="F52" s="19">
+      <c r="N52" s="19">
         <v>20979040</v>
       </c>
-      <c r="G52" s="19">
+      <c r="O52" s="19">
         <v>18056873</v>
       </c>
-      <c r="H52" s="19">
+      <c r="P52" s="19">
         <v>8575901</v>
       </c>
-      <c r="I52" s="19">
+      <c r="Q52" s="19">
         <v>-11391759</v>
       </c>
-      <c r="J52" s="19">
+      <c r="R52" s="19">
         <v>41045147</v>
       </c>
-      <c r="K52" s="19">
-        <v>3964471</v>
-      </c>
-      <c r="L52" s="19">
+      <c r="S52" s="19">
+        <v>-4825092</v>
+      </c>
+      <c r="T52" s="19">
         <v>-36610433</v>
       </c>
-      <c r="M52" s="19">
-        <v>34869877</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U52" s="19">
+        <v>-31054208</v>
+      </c>
+      <c r="V52" s="19">
+        <v>-20723837</v>
+      </c>
+      <c r="W52" s="19">
+        <v>53862180</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>23714135</v>
+      </c>
+      <c r="E53" s="15">
+        <v>13830661</v>
+      </c>
+      <c r="F53" s="15">
+        <v>7749599</v>
+      </c>
+      <c r="G53" s="15">
+        <v>10313124</v>
+      </c>
+      <c r="H53" s="15">
+        <v>12724025</v>
+      </c>
+      <c r="I53" s="15">
+        <v>13433929</v>
+      </c>
+      <c r="J53" s="15">
+        <v>24864890</v>
+      </c>
+      <c r="K53" s="15">
+        <v>29041472</v>
+      </c>
+      <c r="L53" s="15">
         <v>44878791</v>
       </c>
-      <c r="E53" s="15">
+      <c r="M53" s="15">
         <v>36037048</v>
       </c>
-      <c r="F53" s="15">
+      <c r="N53" s="15">
         <v>54884006</v>
       </c>
-      <c r="G53" s="15">
-        <v>75291084</v>
-      </c>
-      <c r="H53" s="15">
-        <v>93919919</v>
-      </c>
-      <c r="I53" s="15">
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
         <v>102396718</v>
       </c>
-      <c r="J53" s="15">
+      <c r="R53" s="15">
         <v>102310772</v>
       </c>
-      <c r="K53" s="15">
+      <c r="S53" s="15">
         <v>143355919</v>
       </c>
-      <c r="L53" s="15">
-        <v>153225737</v>
-      </c>
-      <c r="M53" s="15">
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
         <v>116627533</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V53" s="15">
+        <v>110053180</v>
+      </c>
+      <c r="W53" s="15">
+        <v>89329343</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-1728333</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-3249676</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-1900280</v>
+      </c>
+      <c r="G54" s="11">
+        <v>2318510</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-418230</v>
+      </c>
+      <c r="I54" s="11">
+        <v>840053</v>
+      </c>
+      <c r="J54" s="11">
+        <v>-192567</v>
+      </c>
+      <c r="K54" s="11">
+        <v>5775041</v>
+      </c>
+      <c r="L54" s="11">
         <v>918584</v>
       </c>
-      <c r="E54" s="11">
+      <c r="M54" s="11">
         <v>-10408318</v>
       </c>
-      <c r="F54" s="11">
+      <c r="N54" s="11">
         <v>-571962</v>
       </c>
-      <c r="G54" s="11">
+      <c r="O54" s="11">
         <v>571962</v>
       </c>
-      <c r="H54" s="11">
+      <c r="P54" s="11">
         <v>-99102</v>
       </c>
-      <c r="I54" s="11">
+      <c r="Q54" s="11">
         <v>11305813</v>
       </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
-        <v>5905347</v>
-      </c>
-      <c r="L54" s="11">
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>11206711</v>
+      </c>
+      <c r="T54" s="11">
         <v>12229</v>
       </c>
-      <c r="M54" s="11">
-        <v>-37693661</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U54" s="11">
+        <v>24479855</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>-6670603</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>13830661</v>
+      </c>
+      <c r="E55" s="17">
+        <v>7749599</v>
+      </c>
+      <c r="F55" s="17">
+        <v>10313124</v>
+      </c>
+      <c r="G55" s="17">
+        <v>12724025</v>
+      </c>
+      <c r="H55" s="17">
+        <v>13433929</v>
+      </c>
+      <c r="I55" s="17">
+        <v>24864890</v>
+      </c>
+      <c r="J55" s="17">
+        <v>29041472</v>
+      </c>
+      <c r="K55" s="17">
+        <v>44878791</v>
+      </c>
+      <c r="L55" s="17">
         <v>36037048</v>
       </c>
-      <c r="E55" s="17">
+      <c r="M55" s="17">
         <v>54884006</v>
       </c>
-      <c r="F55" s="17">
+      <c r="N55" s="17">
         <v>75291084</v>
       </c>
-      <c r="G55" s="17">
+      <c r="O55" s="17">
         <v>93919919</v>
       </c>
-      <c r="H55" s="17">
+      <c r="P55" s="17">
         <v>102396718</v>
       </c>
-      <c r="I55" s="17">
+      <c r="Q55" s="17">
         <v>102310772</v>
       </c>
-      <c r="J55" s="17">
+      <c r="R55" s="17">
         <v>143355919</v>
       </c>
-      <c r="K55" s="17">
-        <v>153225737</v>
-      </c>
-      <c r="L55" s="17">
+      <c r="S55" s="17">
+        <v>102310772</v>
+      </c>
+      <c r="T55" s="17">
         <v>116627533</v>
       </c>
-      <c r="M55" s="17">
-        <v>113803749</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U55" s="17">
+        <v>110053180</v>
+      </c>
+      <c r="V55" s="17">
+        <v>89329343</v>
+      </c>
+      <c r="W55" s="17">
+        <v>136520920</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>43783</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1099521</v>
+      </c>
+      <c r="F56" s="11">
+        <v>6000</v>
+      </c>
+      <c r="G56" s="11">
+        <v>5182153</v>
+      </c>
+      <c r="H56" s="11">
+        <v>-4769880</v>
+      </c>
+      <c r="I56" s="11">
+        <v>3163897</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>371482</v>
+      </c>
+      <c r="L56" s="11">
         <v>2770803</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>19147365</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
         <v>4064372</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>-3388108</v>
       </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>19154793</v>
-      </c>
-      <c r="L56" s="11">
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>676264</v>
+      </c>
+      <c r="T56" s="11">
         <v>-2465116</v>
       </c>
-      <c r="M56" s="11">
-        <v>38934785</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U56" s="11">
+        <v>7658063</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2533,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
